--- a/init-data/hzero-scheduler/hzero_message/hzero-message.xlsx
+++ b/init-data/hzero-scheduler/hzero_message/hzero-message.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="157">
   <si>
     <r>
       <rPr>
@@ -1998,7 +1998,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-17</t>
+    <t>2020-09-22</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2016,7 +2016,10 @@
     <t>#server_code</t>
   </si>
   <si>
-    <t>server_name</t>
+    <t>server_name:zh_CN</t>
+  </si>
+  <si>
+    <t>server_name:en_US</t>
   </si>
   <si>
     <t>host</t>
@@ -2046,60 +2049,66 @@
     <t>filter_strategy</t>
   </si>
   <si>
+    <t>#tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>#tenant_id:en_US</t>
+  </si>
+  <si>
+    <t>hmsg_email_server-8</t>
+  </si>
+  <si>
+    <t>HZERO</t>
+  </si>
+  <si>
+    <t>平台默认发送配置</t>
+  </si>
+  <si>
+    <t>smtp.163.com</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>smtp</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>******</t>
+  </si>
+  <si>
+    <t>eg:hzero@163.com</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>邮箱服务配置</t>
+  </si>
+  <si>
+    <t>hmsg_email_property</t>
+  </si>
+  <si>
+    <t>*property_id</t>
+  </si>
+  <si>
+    <t>#server_id</t>
+  </si>
+  <si>
+    <t>#property_code</t>
+  </si>
+  <si>
+    <t>property_value</t>
+  </si>
+  <si>
     <t>#tenant_id</t>
   </si>
   <si>
-    <t>hmsg_email_server-8</t>
-  </si>
-  <si>
-    <t>HZERO</t>
-  </si>
-  <si>
-    <t>平台默认发送配置</t>
-  </si>
-  <si>
-    <t>smtp.163.com</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>smtp</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>******</t>
-  </si>
-  <si>
-    <t>eg:hzero@163.com</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>邮箱服务配置</t>
-  </si>
-  <si>
-    <t>hmsg_email_property</t>
-  </si>
-  <si>
-    <t>*property_id</t>
-  </si>
-  <si>
-    <t>#server_id</t>
-  </si>
-  <si>
-    <t>#property_code</t>
-  </si>
-  <si>
-    <t>property_value</t>
-  </si>
-  <si>
     <t>短信服务配置</t>
   </si>
   <si>
@@ -2167,6 +2176,9 @@
   </si>
   <si>
     <t>#lang</t>
+  </si>
+  <si>
+    <t>editor_type</t>
   </si>
   <si>
     <t>hmsg_message_template-8</t>
@@ -2200,6 +2212,9 @@
     <t>zh_CN</t>
   </si>
   <si>
+    <t>RT</t>
+  </si>
+  <si>
     <t>消息模板参数</t>
   </si>
   <si>
@@ -2221,6 +2236,12 @@
     <t>description:en_US</t>
   </si>
   <si>
+    <t>tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>tenant_id:en_US</t>
+  </si>
+  <si>
     <t>*</t>
   </si>
   <si>
@@ -2260,7 +2281,10 @@
     <t>#message_code</t>
   </si>
   <si>
-    <t>message_name</t>
+    <t>message_name:zh_CN</t>
+  </si>
+  <si>
+    <t>message_name:en_US</t>
   </si>
   <si>
     <t>hmsg_template_server-8</t>
@@ -2291,6 +2315,9 @@
   </si>
   <si>
     <t>server_code</t>
+  </si>
+  <si>
+    <t>tenant_id</t>
   </si>
   <si>
     <t>hmsg_template_server_line-11</t>
@@ -2310,7 +2337,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="86">
+  <fonts count="89">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2591,6 +2618,11 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
     </font>
     <font>
@@ -2636,6 +2668,11 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
     </font>
     <font>
@@ -2687,6 +2724,11 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2907,7 +2949,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3042,6 +3084,9 @@
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3627,7 +3672,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3707,46 +3752,58 @@
       <c r="P7" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" t="s" s="63">
+      <c r="Q7" t="s">
         <v>66</v>
+      </c>
+      <c r="R7" t="s" s="63">
+        <v>67</v>
+      </c>
+      <c r="S7" t="s" s="64">
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q8" t="s">
         <v>77</v>
+      </c>
+      <c r="P8" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" t="s">
+        <v>79</v>
+      </c>
+      <c r="S8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -3757,25 +3814,25 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" t="s" s="64">
-        <v>79</v>
-      </c>
-      <c r="E10" t="s" s="65">
         <v>80</v>
       </c>
-      <c r="F10" t="s" s="66">
+      <c r="D10" t="s" s="65">
         <v>81</v>
       </c>
-      <c r="G10" t="s" s="67">
+      <c r="E10" t="s" s="66">
         <v>82</v>
       </c>
+      <c r="F10" t="s" s="67">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s" s="68">
+        <v>84</v>
+      </c>
       <c r="H10" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" t="s" s="68">
-        <v>66</v>
+        <v>85</v>
+      </c>
+      <c r="I10" t="s" s="69">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3785,7 +3842,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3824,72 +3881,84 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" t="s" s="69">
-        <v>85</v>
-      </c>
-      <c r="E7" t="s" s="70">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s" s="70">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s" s="71">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="71">
+      <c r="F7" t="s" s="72">
         <v>55</v>
       </c>
       <c r="G7" t="s">
         <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M7" t="s">
-        <v>64</v>
-      </c>
-      <c r="N7" t="s" s="72">
-        <v>66</v>
+        <v>93</v>
+      </c>
+      <c r="N7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" t="s" s="73">
+        <v>67</v>
+      </c>
+      <c r="P7" t="s" s="74">
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M8" t="s">
         <v>76</v>
       </c>
       <c r="N8" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3899,7 +3968,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3938,72 +4007,78 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" t="s" s="73">
-        <v>96</v>
-      </c>
-      <c r="E7" t="s" s="74">
-        <v>97</v>
-      </c>
-      <c r="F7" t="s" s="75">
         <v>98</v>
       </c>
+      <c r="D7" t="s" s="75">
+        <v>99</v>
+      </c>
+      <c r="E7" t="s" s="76">
+        <v>100</v>
+      </c>
+      <c r="F7" t="s" s="77">
+        <v>101</v>
+      </c>
       <c r="G7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M7" t="s">
-        <v>105</v>
-      </c>
-      <c r="N7" t="s" s="76">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="N7" t="s" s="78">
+        <v>109</v>
       </c>
       <c r="O7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P7" t="s" s="77">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="P7" t="s" s="79">
+        <v>86</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="N8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P8" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="10">
@@ -4014,113 +4089,167 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" t="s" s="78">
-        <v>114</v>
-      </c>
-      <c r="E10" t="s" s="79">
-        <v>115</v>
-      </c>
-      <c r="F10" t="s" s="80">
-        <v>116</v>
-      </c>
-      <c r="G10" t="s" s="81">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="D10" t="s" s="80">
+        <v>119</v>
+      </c>
+      <c r="E10" t="s" s="81">
+        <v>120</v>
+      </c>
+      <c r="F10" t="s" s="82">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s" s="83">
+        <v>122</v>
       </c>
       <c r="H10" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>124</v>
+      </c>
+      <c r="J10" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F11">
         <f>消息模板!$E$8</f>
       </c>
       <c r="G11" t="s">
-        <v>121</v>
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F12">
         <f>消息模板!$E$8</f>
       </c>
       <c r="G12" t="s">
-        <v>122</v>
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F13">
         <f>消息模板!$E$8</f>
       </c>
       <c r="G13" t="s">
-        <v>123</v>
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F14">
         <f>消息模板!$E$8</f>
       </c>
       <c r="G14" t="s">
-        <v>124</v>
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F15">
         <f>消息模板!$E$8</f>
       </c>
       <c r="G15" t="s">
-        <v>125</v>
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F16">
         <f>消息模板!$E$8</f>
       </c>
       <c r="G16" t="s">
-        <v>126</v>
+        <v>133</v>
+      </c>
+      <c r="J16" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F17">
         <f>消息模板!$E$8</f>
       </c>
       <c r="G17" t="s">
-        <v>127</v>
+        <v>134</v>
+      </c>
+      <c r="J17" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F18">
         <f>消息模板!$E$8</f>
       </c>
       <c r="G18" t="s">
-        <v>128</v>
+        <v>135</v>
+      </c>
+      <c r="J18" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -4130,7 +4259,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4169,42 +4298,54 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" t="s" s="82">
-        <v>130</v>
-      </c>
-      <c r="E7" t="s" s="83">
-        <v>131</v>
-      </c>
-      <c r="F7" t="s" s="84">
-        <v>66</v>
-      </c>
-      <c r="G7" t="s" s="85">
-        <v>132</v>
-      </c>
-      <c r="H7" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="D7" t="s" s="84">
+        <v>137</v>
+      </c>
+      <c r="E7" t="s" s="85">
+        <v>138</v>
+      </c>
+      <c r="F7" t="s" s="86">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s" s="87">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s" s="88">
+        <v>139</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>140</v>
+      </c>
+      <c r="J7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>113</v>
+      </c>
+      <c r="J8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -4215,51 +4356,57 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" t="s" s="86">
-        <v>136</v>
-      </c>
-      <c r="E10" t="s" s="87">
-        <v>137</v>
-      </c>
-      <c r="F10" t="s" s="88">
-        <v>138</v>
-      </c>
-      <c r="G10" t="s" s="89">
-        <v>139</v>
+        <v>143</v>
+      </c>
+      <c r="D10" t="s" s="89">
+        <v>144</v>
+      </c>
+      <c r="E10" t="s" s="90">
+        <v>145</v>
+      </c>
+      <c r="F10" t="s" s="91">
+        <v>146</v>
+      </c>
+      <c r="G10" t="s" s="92">
+        <v>147</v>
       </c>
       <c r="H10" t="s">
-        <v>140</v>
-      </c>
-      <c r="I10" t="s" s="90">
-        <v>141</v>
+        <v>148</v>
+      </c>
+      <c r="I10" t="s" s="93">
+        <v>149</v>
       </c>
       <c r="J10" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K10" t="s">
-        <v>143</v>
+        <v>151</v>
+      </c>
+      <c r="L10" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F11">
         <f>发送配置!$E$8</f>
       </c>
       <c r="G11" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="H11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I11">
         <f>邮箱服务配置!$E$8</f>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="L11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13">
@@ -4270,31 +4417,34 @@
         <v>51</v>
       </c>
       <c r="C13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" t="s" s="94">
+        <v>144</v>
+      </c>
+      <c r="E13" t="s" s="95">
+        <v>145</v>
+      </c>
+      <c r="F13" t="s" s="96">
         <v>146</v>
       </c>
-      <c r="D13" t="s" s="91">
-        <v>136</v>
-      </c>
-      <c r="E13" t="s" s="92">
-        <v>137</v>
-      </c>
-      <c r="F13" t="s" s="93">
-        <v>138</v>
-      </c>
-      <c r="G13" t="s" s="94">
-        <v>139</v>
+      <c r="G13" t="s" s="97">
+        <v>147</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
-      </c>
-      <c r="I13" t="s" s="95">
-        <v>141</v>
+        <v>148</v>
+      </c>
+      <c r="I13" t="s" s="98">
+        <v>149</v>
       </c>
       <c r="J13" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>151</v>
+      </c>
+      <c r="L13" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="15">
@@ -4305,31 +4455,34 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" t="s" s="99">
+        <v>144</v>
+      </c>
+      <c r="E15" t="s" s="100">
+        <v>145</v>
+      </c>
+      <c r="F15" t="s" s="101">
+        <v>146</v>
+      </c>
+      <c r="G15" t="s" s="102">
         <v>147</v>
       </c>
-      <c r="D15" t="s" s="96">
-        <v>136</v>
-      </c>
-      <c r="E15" t="s" s="97">
-        <v>137</v>
-      </c>
-      <c r="F15" t="s" s="98">
-        <v>138</v>
-      </c>
-      <c r="G15" t="s" s="99">
-        <v>139</v>
-      </c>
       <c r="H15" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>143</v>
+        <v>151</v>
+      </c>
+      <c r="L15" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
